--- a/certificate_excel.xlsx
+++ b/certificate_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manish Sharma\Desktop\edproject\certificate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9C0790-E35A-4943-ADF8-C5DEB8923B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B016FA5D-E29C-45E6-9781-9CE3E9CB610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F86B3227-D2EF-4319-A08C-EEA2A2852406}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Prashant Patidar</t>
   </si>
   <si>
-    <t>Goli Kushwah</t>
-  </si>
-  <si>
     <t>ECH/24_25/DS005</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Python</t>
+  </si>
+  <si>
+    <t>Nitin Kushwah</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -513,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -541,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -549,13 +549,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -563,13 +563,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -577,13 +577,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -591,13 +591,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
